--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="207">
   <si>
     <t>Row</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>HVQFN-32-1EP_5x5mm_P0.5mm_EP3.1x3.1mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>Package_DFN_QFN</t>
   </si>
   <si>
     <t>https://www.ti.com/lit/ds/symlink/pcm5242.pdf</t>
@@ -1174,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1199,13 +1196,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="3">
         <v>18</v>
@@ -1213,41 +1210,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1255,13 +1252,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -2355,7 +2352,7 @@
         <v>158</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -2367,7 +2364,7 @@
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>34</v>
@@ -2379,10 +2376,10 @@
         <v>97</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>53</v>
@@ -2397,30 +2394,30 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>134</v>
@@ -2438,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>34</v>
@@ -2447,13 +2444,13 @@
         <v>49</v>
       </c>
       <c r="O24" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="Q24" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>39</v>
@@ -2476,28 +2473,28 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2509,7 +2506,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>34</v>
@@ -2521,10 +2518,10 @@
         <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>53</v>
@@ -2539,36 +2536,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="G26" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
@@ -2580,7 +2577,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>34</v>
@@ -2592,10 +2589,10 @@
         <v>97</v>
       </c>
       <c r="P26" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>53</v>
@@ -2610,10 +2607,10 @@
         <v>42</v>
       </c>
       <c r="V26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="W26" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2639,22 +2636,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="206">
   <si>
     <t>Row</t>
   </si>
@@ -546,9 +546,6 @@
   </si>
   <si>
     <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
-  </si>
-  <si>
-    <t>Oscillator</t>
   </si>
   <si>
     <t>https://abracon.com/Oscillators/ASCO.pdf</t>
@@ -1171,7 +1168,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1196,13 +1193,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="3">
         <v>18</v>
@@ -1210,41 +1207,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1252,13 +1249,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -2494,7 +2491,7 @@
         <v>175</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2506,7 +2503,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>34</v>
@@ -2518,10 +2515,10 @@
         <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>53</v>
@@ -2536,15 +2533,15 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="W25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>34</v>
@@ -2556,16 +2553,16 @@
         <v>144</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>175</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
@@ -2577,7 +2574,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>34</v>
@@ -2589,10 +2586,10 @@
         <v>97</v>
       </c>
       <c r="P26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>53</v>
@@ -2607,10 +2604,10 @@
         <v>42</v>
       </c>
       <c r="V26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="W26" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2636,22 +2633,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -575,7 +575,7 @@
     <t>39.4750</t>
   </si>
   <si>
-    <t>34.5250</t>
+    <t>34.4000</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="223">
   <si>
     <t>Row</t>
   </si>
@@ -104,7 +104,7 @@
     <t>C21 C22 C25 C26</t>
   </si>
   <si>
-    <t>2,2nf50v</t>
+    <t>2,2nF50V</t>
   </si>
   <si>
     <t>C_0805_2012Metric</t>
@@ -119,129 +119,144 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>https://www.samsungsem.com/resources/file/global/support/product_catalog/MLCC.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
+  </si>
+  <si>
+    <t>/DAC</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(4)</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>10.7700</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>2.9000</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
+  </si>
+  <si>
+    <t>100nF25V</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(9)</t>
+  </si>
+  <si>
+    <t>34.3500</t>
+  </si>
+  <si>
+    <t>47.6250</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
+  </si>
+  <si>
+    <t>1uF16V</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
+  </si>
+  <si>
+    <t>/ADC</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(8)</t>
+  </si>
+  <si>
+    <t>22.2000</t>
+  </si>
+  <si>
+    <t>26.8500</t>
+  </si>
+  <si>
+    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
+  </si>
+  <si>
+    <t>10uF16V</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21X106KAYNNNE/5961182</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(11)</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>16.0500</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D1 D2</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
     <t>~</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>/DAC</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(4)</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>10.7700</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>2.9000</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
-  </si>
-  <si>
-    <t>100nf25v</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(9)</t>
-  </si>
-  <si>
-    <t>34.3500</t>
-  </si>
-  <si>
-    <t>47.6250</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
-  </si>
-  <si>
-    <t>1uf16v</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>/ADC</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(8)</t>
-  </si>
-  <si>
-    <t>22.2000</t>
-  </si>
-  <si>
-    <t>26.8500</t>
-  </si>
-  <si>
-    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
-  </si>
-  <si>
-    <t>10uf16v</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(11)</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>16.0500</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
     <t>pedalboard-soundcard(2)</t>
   </si>
   <si>
@@ -347,6 +362,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT100R/1760711</t>
+  </si>
+  <si>
     <t>pedalboard-soundcard(10)</t>
   </si>
   <si>
@@ -362,6 +383,9 @@
     <t>470R</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+  </si>
+  <si>
     <t>54.0250</t>
   </si>
   <si>
@@ -371,7 +395,10 @@
     <t>R5 R6 R7 R10</t>
   </si>
   <si>
-    <t>3K8</t>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
   </si>
   <si>
     <t>41.1250</t>
@@ -383,7 +410,10 @@
     <t>R1 R20 R23 R24 R25</t>
   </si>
   <si>
-    <t>10k</t>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
   </si>
   <si>
     <t>pedalboard-soundcard(5)</t>
@@ -404,6 +434,9 @@
     <t>100K</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
+  </si>
+  <si>
     <t>12.6500</t>
   </si>
   <si>
@@ -428,7 +461,10 @@
     <t>Package_TO_SOT_SMD</t>
   </si>
   <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/Atmel-8815-SEEPROM-AT24CS01-02-Datasheet.pdf</t>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/AT24C01C-AT24C02C-I2C-Compatible-Two-Wire-Serial-EEPROM-1Kbit-2Kbit-20006111A.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
   </si>
   <si>
     <t>37.3900</t>
@@ -449,12 +485,39 @@
     <t>14</t>
   </si>
   <si>
+    <t>TLV71333PDBV-Regulator_Linear</t>
+  </si>
+  <si>
+    <t>zynthiandac-rescue</t>
+  </si>
+  <si>
+    <t>U2 U3 U5</t>
+  </si>
+  <si>
+    <t>NCP163</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(3)</t>
+  </si>
+  <si>
+    <t>18.9000</t>
+  </si>
+  <si>
+    <t>44.6500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>PCM1863DBT-pcm1863</t>
   </si>
   <si>
-    <t>zynthiandac-rescue</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -470,6 +533,9 @@
     <t>https://www.ti.com/lit/ds/symlink/pcm1863.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
+  </si>
+  <si>
     <t>16.6000</t>
   </si>
   <si>
@@ -482,7 +548,7 @@
     <t>7.3000</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>PCM5242RHBR-pcm5242</t>
@@ -500,6 +566,9 @@
     <t>https://www.ti.com/lit/ds/symlink/pcm5242.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
+  </si>
+  <si>
     <t>45.7500</t>
   </si>
   <si>
@@ -509,30 +578,6 @@
     <t>5.7500</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>TLV71333PDBV-Regulator_Linear</t>
-  </si>
-  <si>
-    <t>U2 U3 U5</t>
-  </si>
-  <si>
-    <t>ncp163</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(3)</t>
-  </si>
-  <si>
-    <t>18.9000</t>
-  </si>
-  <si>
-    <t>44.6500</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -551,6 +596,9 @@
     <t>https://abracon.com/Oscillators/ASCO.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
+  </si>
+  <si>
     <t>33.2500</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
   </si>
   <si>
     <t>24.576Mhz</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
   </si>
   <si>
     <t>39.4750</t>
@@ -707,12 +758,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -726,6 +771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF0BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1204,7 @@
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="60.7109375" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="29.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" customWidth="1"/>
@@ -1168,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1193,13 +1244,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3">
         <v>18</v>
@@ -1207,41 +1258,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1249,13 +1300,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -1332,7 +1383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1366,10 +1417,10 @@
       <c r="K9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -1403,80 +1454,80 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:23" ht="30" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="N10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="O10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="R10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -1488,10 +1539,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -1500,31 +1551,31 @@
         <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>34</v>
+      <c r="M11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>39</v>
@@ -1545,101 +1596,101 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:23" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="N12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>45</v>
@@ -1650,26 +1701,26 @@
       <c r="K13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>34</v>
+      <c r="L13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>40</v>
@@ -1681,107 +1732,107 @@
         <v>42</v>
       </c>
       <c r="V13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="45" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="N14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="45" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="P14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="U14" s="11" t="s">
+      <c r="T14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>91</v>
+      <c r="V14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
@@ -1792,138 +1843,138 @@
       <c r="K15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>34</v>
+      <c r="L15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="30" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="E16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S16" s="11" t="s">
+      <c r="L16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="V16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>31</v>
@@ -1934,11 +1985,11 @@
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>34</v>
+      <c r="L17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>35</v>
@@ -1947,10 +1998,10 @@
         <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>39</v>
@@ -1965,137 +2016,137 @@
         <v>42</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="30" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="E18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>34</v>
+      <c r="L19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>40</v>
@@ -2107,107 +2158,107 @@
         <v>42</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="9" t="s">
+      <c r="L20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="11" t="s">
+      <c r="P20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="30" customHeight="1">
+      <c r="V20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -2219,25 +2270,25 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>34</v>
+        <v>147</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2249,107 +2300,107 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="9" t="s">
-        <v>142</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="9" t="s">
+      <c r="I22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S22" s="11" t="s">
+      <c r="L22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="W22" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>164</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -2361,25 +2412,25 @@
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>34</v>
+        <v>170</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>40</v>
@@ -2391,107 +2442,107 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="9" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="30" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="W24" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="V24" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>186</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2503,25 +2554,25 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>34</v>
+        <v>191</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>40</v>
@@ -2533,81 +2584,81 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="9" t="s">
-        <v>181</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="30" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="11" t="s">
+      <c r="L26" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S26" s="11" t="s">
+      <c r="O26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="U26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>180</v>
+      <c r="V26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2633,22 +2684,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>205</v>
+      <c r="A4" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="222">
   <si>
     <t>Row</t>
   </si>
@@ -290,13 +290,13 @@
     <t>J2 J3</t>
   </si>
   <si>
-    <t>PinHeader_2x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>59.1500</t>
+    <t>PinSocket_2x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard</t>
+  </si>
+  <si>
+    <t>61.6900</t>
   </si>
   <si>
     <t>19.1000</t>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>RPi_GPIO</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard</t>
   </si>
   <si>
     <t>J1</t>
@@ -1199,7 +1196,7 @@
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="54.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
@@ -1219,7 +1216,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1244,13 +1241,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2" s="3">
         <v>18</v>
@@ -1258,41 +1255,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1300,13 +1297,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -1820,19 +1817,19 @@
         <v>98</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
@@ -1853,13 +1850,13 @@
         <v>50</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>54</v>
@@ -1874,10 +1871,10 @@
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
@@ -1885,52 +1882,52 @@
         <v>58</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="J16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="Q16" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>54</v>
@@ -1956,25 +1953,25 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="G17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>31</v>
@@ -1986,10 +1983,10 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>35</v>
@@ -1998,10 +1995,10 @@
         <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>39</v>
@@ -2024,28 +2021,28 @@
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="G18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>31</v>
@@ -2057,10 +2054,10 @@
         <v>32</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>50</v>
@@ -2069,10 +2066,10 @@
         <v>36</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>82</v>
@@ -2098,25 +2095,25 @@
         <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="G19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>71</v>
@@ -2128,22 +2125,22 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>82</v>
@@ -2166,28 +2163,28 @@
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="G20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>31</v>
@@ -2199,10 +2196,10 @@
         <v>32</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>60</v>
@@ -2214,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>54</v>
@@ -2237,28 +2234,28 @@
     </row>
     <row r="21" spans="1:23" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -2270,25 +2267,25 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="R21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2300,36 +2297,36 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="W21" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="G22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>55</v>
@@ -2341,22 +2338,22 @@
         <v>32</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="Q22" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>39</v>
@@ -2371,36 +2368,36 @@
         <v>42</v>
       </c>
       <c r="V22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -2412,25 +2409,25 @@
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q23" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="R23" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>40</v>
@@ -2442,36 +2439,36 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="W23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -2483,22 +2480,22 @@
         <v>32</v>
       </c>
       <c r="L24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q24" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>54</v>
@@ -2513,36 +2510,36 @@
         <v>42</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2554,22 +2551,22 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>54</v>
@@ -2584,36 +2581,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="W25" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="G26" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -2625,22 +2622,22 @@
         <v>32</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P26" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>54</v>
@@ -2655,10 +2652,10 @@
         <v>42</v>
       </c>
       <c r="V26" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="W26" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2684,22 +2681,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="223">
   <si>
     <t>Row</t>
   </si>
@@ -296,12 +296,18 @@
     <t>pedalboard-soundcard</t>
   </si>
   <si>
-    <t>61.6900</t>
+    <t>59.1500</t>
   </si>
   <si>
     <t>19.1000</t>
   </si>
   <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
     <t>THT</t>
   </si>
   <si>
@@ -468,9 +474,6 @@
   </si>
   <si>
     <t>47.5800</t>
-  </si>
-  <si>
-    <t>180.0000</t>
   </si>
   <si>
     <t>3.6000</t>
@@ -1216,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1241,13 +1244,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3">
         <v>18</v>
@@ -1255,41 +1258,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1297,13 +1300,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -1788,45 +1791,45 @@
         <v>93</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>91</v>
@@ -1850,13 +1853,13 @@
         <v>50</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>54</v>
@@ -1865,16 +1868,16 @@
         <v>40</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
@@ -1882,52 +1885,52 @@
         <v>58</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>54</v>
@@ -1953,25 +1956,25 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>31</v>
@@ -1983,10 +1986,10 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>35</v>
@@ -1995,10 +1998,10 @@
         <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>39</v>
@@ -2021,28 +2024,28 @@
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>31</v>
@@ -2054,10 +2057,10 @@
         <v>32</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>50</v>
@@ -2066,10 +2069,10 @@
         <v>36</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>82</v>
@@ -2095,25 +2098,25 @@
         <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>71</v>
@@ -2125,22 +2128,22 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>82</v>
@@ -2163,28 +2166,28 @@
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>31</v>
@@ -2196,10 +2199,10 @@
         <v>32</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>60</v>
@@ -2211,7 +2214,7 @@
         <v>69</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>54</v>
@@ -2234,28 +2237,28 @@
     </row>
     <row r="21" spans="1:23" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -2267,25 +2270,25 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2297,36 +2300,36 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>55</v>
@@ -2338,22 +2341,22 @@
         <v>32</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>39</v>
@@ -2368,36 +2371,36 @@
         <v>42</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -2409,25 +2412,25 @@
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>40</v>
@@ -2439,33 +2442,33 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>91</v>
@@ -2480,22 +2483,22 @@
         <v>32</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>54</v>
@@ -2510,33 +2513,33 @@
         <v>42</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>91</v>
@@ -2551,22 +2554,22 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>54</v>
@@ -2581,33 +2584,33 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>91</v>
@@ -2622,22 +2625,22 @@
         <v>32</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>54</v>
@@ -2652,10 +2655,10 @@
         <v>42</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2681,22 +2684,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -2388,7 +2388,7 @@
         <v>165</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>166</v>
@@ -2459,7 +2459,7 @@
         <v>177</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>178</v>
@@ -2530,7 +2530,7 @@
         <v>187</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>188</v>
@@ -2601,7 +2601,7 @@
         <v>187</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>198</v>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="241">
   <si>
     <t>Row</t>
   </si>
@@ -230,7 +230,7 @@
     <t>9.6000</t>
   </si>
   <si>
-    <t>16.0500</t>
+    <t>16.0700</t>
   </si>
   <si>
     <t>5</t>
@@ -278,6 +278,48 @@
     <t>6</t>
   </si>
   <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J4 J5</t>
+  </si>
+  <si>
+    <t>Audio_Jack</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>17.4400</t>
+  </si>
+  <si>
+    <t>4.5000</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -296,6 +338,12 @@
     <t>pedalboard-soundcard</t>
   </si>
   <si>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=534206&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/te-connectivity-amp-connectors/5-534206-3/1093005</t>
+  </si>
+  <si>
     <t>59.1500</t>
   </si>
   <si>
@@ -308,18 +356,12 @@
     <t>bottom</t>
   </si>
   <si>
-    <t>THT</t>
-  </si>
-  <si>
     <t>4.2400</t>
   </si>
   <si>
     <t>6.7800</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>RPi_GPIO</t>
   </si>
   <si>
@@ -329,6 +371,12 @@
     <t>Pin_Header_Straight_2x20</t>
   </si>
   <si>
+    <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
+  </si>
+  <si>
     <t>pedalboard-soundcard(1)</t>
   </si>
   <si>
@@ -410,6 +458,9 @@
     <t>46.4000</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>R1 R20 R23 R24 R25</t>
   </si>
   <si>
@@ -428,7 +479,7 @@
     <t>30.6750</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>R4 R9 R11 R13</t>
@@ -440,10 +491,13 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
   </si>
   <si>
-    <t>12.6500</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>13.4100</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
@@ -482,7 +536,7 @@
     <t>2.5000</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>TLV71333PDBV-Regulator_Linear</t>
@@ -512,7 +566,7 @@
     <t>44.6500</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>PCM1863DBT-pcm1863</t>
@@ -548,7 +602,7 @@
     <t>7.3000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>PCM5242RHBR-pcm5242</t>
@@ -578,7 +632,7 @@
     <t>5.7500</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>ASCO-Oscillator</t>
@@ -611,7 +665,7 @@
     <t>2.4000</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>X2</t>
@@ -665,7 +719,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>72 (69 SMD/ 3 THT)</t>
+    <t>74 (69 SMD/ 5 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1183,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1219,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1244,55 +1298,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="F2" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1300,16 +1354,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1738,7 +1792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="45" customHeight="1">
+    <row r="14" spans="1:23" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
@@ -1755,13 +1809,13 @@
         <v>89</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>45</v>
@@ -1772,29 +1826,29 @@
       <c r="K14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>78</v>
+      <c r="L14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>96</v>
@@ -1809,63 +1863,63 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>78</v>
+      <c r="B15" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>78</v>
+      <c r="L15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>96</v>
@@ -1874,63 +1928,63 @@
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>108</v>
+      <c r="B16" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>54</v>
@@ -1939,16 +1993,16 @@
         <v>40</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
@@ -1956,55 +2010,55 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>40</v>
@@ -2024,28 +2078,28 @@
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>31</v>
@@ -2057,25 +2111,25 @@
         <v>32</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>40</v>
@@ -2098,52 +2152,52 @@
         <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>82</v>
@@ -2166,58 +2220,58 @@
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>40</v>
@@ -2235,60 +2289,60 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="45" customHeight="1">
+    <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2300,66 +2354,66 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="45" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>78</v>
+        <v>159</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>40</v>
@@ -2371,66 +2425,66 @@
         <v>42</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>40</v>
@@ -2442,36 +2496,36 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -2483,25 +2537,25 @@
         <v>32</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>40</v>
@@ -2513,36 +2567,36 @@
         <v>42</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2554,22 +2608,22 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>54</v>
@@ -2584,36 +2638,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -2625,22 +2679,22 @@
         <v>32</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>54</v>
@@ -2655,10 +2709,81 @@
         <v>42</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>196</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2684,22 +2809,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="244">
   <si>
     <t>Row</t>
   </si>
@@ -278,6 +280,423 @@
     <t>6</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J2 J3</t>
+  </si>
+  <si>
+    <t>PinSocket_2x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard</t>
+  </si>
+  <si>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=534206&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/te-connectivity-amp-connectors/5-534206-3/1093005</t>
+  </si>
+  <si>
+    <t>59.1500</t>
+  </si>
+  <si>
+    <t>19.1000</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>6.7800</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RPi_GPIO</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Pin_Header_Straight_2x20</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(1)</t>
+  </si>
+  <si>
+    <t>32.5000</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>4.2672</t>
+  </si>
+  <si>
+    <t>49.9872</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R2 R3 R8 R12 R14 R15 R21 R22 R26 R27</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT100R/1760711</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(10)</t>
+  </si>
+  <si>
+    <t>51.9200</t>
+  </si>
+  <si>
+    <t>46.8700</t>
+  </si>
+  <si>
+    <t>R16 R17 R18 R19</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+  </si>
+  <si>
+    <t>54.0250</t>
+  </si>
+  <si>
+    <t>14.1950</t>
+  </si>
+  <si>
+    <t>R5 R6 R7 R10</t>
+  </si>
+  <si>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
+  </si>
+  <si>
+    <t>41.1250</t>
+  </si>
+  <si>
+    <t>46.4000</t>
+  </si>
+  <si>
+    <t>R1 R20 R23 R24 R25</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(5)</t>
+  </si>
+  <si>
+    <t>9.9800</t>
+  </si>
+  <si>
+    <t>30.6750</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>R4 R9 R11 R13</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>13.4100</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
+  </si>
+  <si>
+    <t>AT24CS01-STUM</t>
+  </si>
+  <si>
+    <t>Memory_EEPROM</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/AT24C01C-AT24C02C-I2C-Compatible-Two-Wire-Serial-EEPROM-1Kbit-2Kbit-20006111A.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
+  </si>
+  <si>
+    <t>37.3900</t>
+  </si>
+  <si>
+    <t>47.5800</t>
+  </si>
+  <si>
+    <t>3.6000</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>TLV71333PDBV-Regulator_Linear</t>
+  </si>
+  <si>
+    <t>zynthiandac-rescue</t>
+  </si>
+  <si>
+    <t>U2 U3 U5</t>
+  </si>
+  <si>
+    <t>NCP163</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(3)</t>
+  </si>
+  <si>
+    <t>18.9000</t>
+  </si>
+  <si>
+    <t>44.6500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>PCM1863DBT-pcm1863</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>PCM1863DBT</t>
+  </si>
+  <si>
+    <t>TSSOP-30_4.4x7.8mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/pcm1863.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
+  </si>
+  <si>
+    <t>16.6000</t>
+  </si>
+  <si>
+    <t>27.2500</t>
+  </si>
+  <si>
+    <t>7.2000</t>
+  </si>
+  <si>
+    <t>7.3000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>PCM5242RHBR-pcm5242</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>PCM5242RHBR</t>
+  </si>
+  <si>
+    <t>HVQFN-32-1EP_5x5mm_P0.5mm_EP3.1x3.1mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/pcm5242.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
+  </si>
+  <si>
+    <t>45.7500</t>
+  </si>
+  <si>
+    <t>16.7230</t>
+  </si>
+  <si>
+    <t>5.7500</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ASCO-Oscillator</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>22.5792Mhz</t>
+  </si>
+  <si>
+    <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Oscillators/ASCO.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
+  </si>
+  <si>
+    <t>33.2500</t>
+  </si>
+  <si>
+    <t>34.4500</t>
+  </si>
+  <si>
+    <t>2.3000</t>
+  </si>
+  <si>
+    <t>2.4000</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>24.576Mhz</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
+  </si>
+  <si>
+    <t>39.4750</t>
+  </si>
+  <si>
+    <t>34.4000</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>74 (69 SMD/ 5 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>72 (69 SMD/ 3 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -296,6 +715,12 @@
     <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
     <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
   </si>
   <si>
@@ -308,427 +733,13 @@
     <t>4.5000</t>
   </si>
   <si>
-    <t>THT</t>
+    <t>no</t>
   </si>
   <si>
     <t>11.2000</t>
   </si>
   <si>
     <t>9.3500</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J2 J3</t>
-  </si>
-  <si>
-    <t>PinSocket_2x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard</t>
-  </si>
-  <si>
-    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=534206&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/te-connectivity-amp-connectors/5-534206-3/1093005</t>
-  </si>
-  <si>
-    <t>59.1500</t>
-  </si>
-  <si>
-    <t>19.1000</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>6.7800</t>
-  </si>
-  <si>
-    <t>RPi_GPIO</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Pin_Header_Straight_2x20</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(1)</t>
-  </si>
-  <si>
-    <t>32.5000</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>4.2672</t>
-  </si>
-  <si>
-    <t>49.9872</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R2 R3 R8 R12 R14 R15 R21 R22 R26 R27</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT100R/1760711</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(10)</t>
-  </si>
-  <si>
-    <t>51.9200</t>
-  </si>
-  <si>
-    <t>46.8700</t>
-  </si>
-  <si>
-    <t>R16 R17 R18 R19</t>
-  </si>
-  <si>
-    <t>470R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
-  </si>
-  <si>
-    <t>54.0250</t>
-  </si>
-  <si>
-    <t>14.1950</t>
-  </si>
-  <si>
-    <t>R5 R6 R7 R10</t>
-  </si>
-  <si>
-    <t>3K9</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
-  </si>
-  <si>
-    <t>41.1250</t>
-  </si>
-  <si>
-    <t>46.4000</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>R1 R20 R23 R24 R25</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(5)</t>
-  </si>
-  <si>
-    <t>9.9800</t>
-  </si>
-  <si>
-    <t>30.6750</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>R4 R9 R11 R13</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>13.4100</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
-  </si>
-  <si>
-    <t>AT24CS01-STUM</t>
-  </si>
-  <si>
-    <t>Memory_EEPROM</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/AT24C01C-AT24C02C-I2C-Compatible-Two-Wire-Serial-EEPROM-1Kbit-2Kbit-20006111A.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
-  </si>
-  <si>
-    <t>37.3900</t>
-  </si>
-  <si>
-    <t>47.5800</t>
-  </si>
-  <si>
-    <t>3.6000</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>TLV71333PDBV-Regulator_Linear</t>
-  </si>
-  <si>
-    <t>zynthiandac-rescue</t>
-  </si>
-  <si>
-    <t>U2 U3 U5</t>
-  </si>
-  <si>
-    <t>NCP163</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(3)</t>
-  </si>
-  <si>
-    <t>18.9000</t>
-  </si>
-  <si>
-    <t>44.6500</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>PCM1863DBT-pcm1863</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>PCM1863DBT</t>
-  </si>
-  <si>
-    <t>TSSOP-30_4.4x7.8mm_P0.5mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/pcm1863.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
-  </si>
-  <si>
-    <t>16.6000</t>
-  </si>
-  <si>
-    <t>27.2500</t>
-  </si>
-  <si>
-    <t>7.2000</t>
-  </si>
-  <si>
-    <t>7.3000</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>PCM5242RHBR-pcm5242</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>PCM5242RHBR</t>
-  </si>
-  <si>
-    <t>HVQFN-32-1EP_5x5mm_P0.5mm_EP3.1x3.1mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/pcm5242.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
-  </si>
-  <si>
-    <t>45.7500</t>
-  </si>
-  <si>
-    <t>16.7230</t>
-  </si>
-  <si>
-    <t>5.7500</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>ASCO-Oscillator</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>22.5792Mhz</t>
-  </si>
-  <si>
-    <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Oscillators/ASCO.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
-  </si>
-  <si>
-    <t>33.2500</t>
-  </si>
-  <si>
-    <t>34.4500</t>
-  </si>
-  <si>
-    <t>2.3000</t>
-  </si>
-  <si>
-    <t>2.4000</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>24.576Mhz</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
-  </si>
-  <si>
-    <t>39.4750</t>
-  </si>
-  <si>
-    <t>34.4000</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-12-19</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>74 (69 SMD/ 5 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -901,6 +912,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1237,7 +1300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1273,7 +1336,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1298,13 +1361,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3">
         <v>19</v>
@@ -1312,41 +1375,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1354,16 +1417,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F6" s="3">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1792,7 +1855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1">
+    <row r="14" spans="1:23" ht="45" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
@@ -1809,13 +1872,13 @@
         <v>89</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>45</v>
@@ -1833,7 +1896,7 @@
         <v>93</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>79</v>
@@ -1845,69 +1908,69 @@
         <v>95</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="45" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>108</v>
@@ -1916,75 +1979,75 @@
         <v>109</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>78</v>
+      <c r="B16" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>54</v>
@@ -1993,16 +2056,16 @@
         <v>40</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
@@ -2010,55 +2073,55 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>40</v>
@@ -2078,28 +2141,28 @@
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>31</v>
@@ -2111,25 +2174,25 @@
         <v>32</v>
       </c>
       <c r="L18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="N18" s="10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>40</v>
@@ -2152,52 +2215,52 @@
         <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>82</v>
@@ -2220,55 +2283,55 @@
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>82</v>
@@ -2289,60 +2352,60 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="30" customHeight="1">
+    <row r="21" spans="1:23" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="M21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="R21" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2354,66 +2417,66 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="45" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="P22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="R22" s="10" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>40</v>
@@ -2425,66 +2488,66 @@
         <v>42</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="Q23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="R23" s="7" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>40</v>
@@ -2496,36 +2559,36 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>186</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -2537,25 +2600,25 @@
         <v>32</v>
       </c>
       <c r="L24" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="Q24" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="N24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="R24" s="10" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>40</v>
@@ -2567,36 +2630,36 @@
         <v>42</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2608,22 +2671,22 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>54</v>
@@ -2638,36 +2701,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -2679,22 +2742,22 @@
         <v>32</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>54</v>
@@ -2709,81 +2772,10 @@
         <v>42</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2798,6 +2790,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="13" max="13" width="60.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="C2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="C3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="C4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="C5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="C6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2809,22 +3084,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -340,7 +340,7 @@
     <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
+    <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/2222/6238005</t>
   </si>
   <si>
     <t>pedalboard-soundcard(1)</t>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -673,7 +673,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+    <t>7.0.11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -2802,7 +2802,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" customWidth="1"/>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="245">
   <si>
     <t>Row</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>9.3500</t>
+  </si>
+  <si>
+    <t>Columns colors</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -3073,33 +3076,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="239">
   <si>
     <t>Row</t>
   </si>
@@ -94,7 +94,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t/>
   </si>
   <si>
     <t>C</t>
@@ -238,9 +238,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>~</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>pedalboard-soundcard(2)</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
@@ -358,9 +349,6 @@
     <t>49.9872</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -463,9 +451,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
-  </si>
-  <si>
     <t>AT24CS01-STUM</t>
   </si>
   <si>
@@ -673,7 +658,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.11+1</t>
+    <t>8.0.4+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -695,9 +680,6 @@
   </si>
   <si>
     <t>Total Components:</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
     <t>AudioJack3_SwitchTR</t>
@@ -814,7 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6F9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,8 +906,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -976,8 +958,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1313,7 +1295,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
@@ -1339,7 +1321,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1364,13 +1346,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3">
         <v>19</v>
@@ -1378,41 +1360,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1420,13 +1402,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -1540,7 +1522,7 @@
       <c r="L9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -1575,73 +1557,73 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1682,7 +1664,7 @@
       <c r="L11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="7" t="s">
@@ -1717,73 +1699,73 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1792,25 +1774,25 @@
         <v>71</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>45</v>
@@ -1821,26 +1803,26 @@
       <c r="K13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>78</v>
+      <c r="L13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>40</v>
@@ -1852,107 +1834,107 @@
         <v>42</v>
       </c>
       <c r="V13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="45" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="45" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="F14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="I14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="M14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="N14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="10" t="s">
+      <c r="Q14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="R14" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="10" t="s">
+      <c r="S14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="T14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="U14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="W14" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
@@ -1964,22 +1946,22 @@
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>54</v>
@@ -1988,87 +1970,87 @@
         <v>40</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="F16" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="30" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="G16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="H16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="J16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="M16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="N16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="P16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="Q16" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>84</v>
+      <c r="V16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
@@ -2076,25 +2058,25 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>31</v>
@@ -2106,10 +2088,10 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>35</v>
@@ -2118,10 +2100,10 @@
         <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>39</v>
@@ -2136,81 +2118,81 @@
         <v>42</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="I18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="30" customHeight="1">
@@ -2218,25 +2200,25 @@
         <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>71</v>
@@ -2248,25 +2230,25 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>136</v>
+        <v>115</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>40</v>
@@ -2278,107 +2260,107 @@
         <v>42</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="Q20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="W20" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -2390,25 +2372,25 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2420,107 +2402,107 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="G22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="M22" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="N22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="P22" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="Q22" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="R22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>158</v>
+      <c r="W22" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -2532,25 +2514,25 @@
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>40</v>
@@ -2562,107 +2544,107 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="W23" s="7" t="s">
+      <c r="G24" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="30" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="H24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="M24" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="N24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="Q24" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="R24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>190</v>
+      <c r="W24" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>78</v>
+        <v>186</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2674,22 +2656,22 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>54</v>
@@ -2704,81 +2686,81 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="W25" s="7" t="s">
+      <c r="N26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="30" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="Q26" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="R26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="10" t="s">
+      <c r="W26" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +2785,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
@@ -2829,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2854,13 +2836,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3">
         <v>19</v>
@@ -2868,41 +2850,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2910,13 +2892,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -2998,70 +2980,70 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3087,27 +3069,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>243</v>
+      <c r="A4" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
-        <v>244</v>
+      <c r="A5" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="241">
   <si>
     <t>Row</t>
   </si>
@@ -397,7 +397,7 @@
     <t>14.1950</t>
   </si>
   <si>
-    <t>R5 R6 R7 R10</t>
+    <t>R5 R6 R7</t>
   </si>
   <si>
     <t>3K9</t>
@@ -406,6 +406,9 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
   </si>
   <si>
+    <t>pedalboard-soundcard(3)</t>
+  </si>
+  <si>
     <t>41.1250</t>
   </si>
   <si>
@@ -505,9 +508,6 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
   </si>
   <si>
-    <t>pedalboard-soundcard(3)</t>
-  </si>
-  <si>
     <t>18.9000</t>
   </si>
   <si>
@@ -673,7 +673,7 @@
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>72 (69 SMD/ 3 THT)</t>
+    <t>71 (68 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -722,6 +722,12 @@
   </si>
   <si>
     <t>9.3500</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>44.9250</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -1355,7 +1361,7 @@
         <v>213</v>
       </c>
       <c r="F2" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1411,7 +1417,7 @@
         <v>219</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2150,10 +2156,10 @@
         <v>113</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>32</v>
@@ -2168,13 +2174,13 @@
         <v>50</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>80</v>
@@ -2209,10 +2215,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>112</v>
@@ -2233,19 +2239,19 @@
         <v>115</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>80</v>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>24</v>
@@ -2280,10 +2286,10 @@
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>112</v>
@@ -2304,7 +2310,7 @@
         <v>115</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>60</v>
@@ -2313,10 +2319,10 @@
         <v>36</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>80</v>
@@ -2339,28 +2345,28 @@
     </row>
     <row r="21" spans="1:23" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -2372,10 +2378,10 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>50</v>
@@ -2384,10 +2390,10 @@
         <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>93</v>
@@ -2402,36 +2408,36 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>55</v>
@@ -2443,16 +2449,16 @@
         <v>32</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>162</v>
@@ -2473,10 +2479,10 @@
         <v>42</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
@@ -2775,7 +2781,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2845,7 +2851,7 @@
         <v>213</v>
       </c>
       <c r="F2" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2901,7 +2907,7 @@
         <v>219</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -3044,6 +3050,77 @@
       </c>
       <c r="W9" s="7" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3069,27 +3146,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="248">
   <si>
     <t>Row</t>
   </si>
@@ -160,6 +160,36 @@
     <t>2</t>
   </si>
   <si>
+    <t>Film Capacitor</t>
+  </si>
+  <si>
+    <t>C33 C34</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
+  </si>
+  <si>
+    <t>/ADC</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(2)</t>
+  </si>
+  <si>
+    <t>19.5400</t>
+  </si>
+  <si>
+    <t>22.1100</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
   </si>
   <si>
@@ -169,9 +199,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -187,9 +214,6 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
   </si>
   <si>
@@ -202,9 +226,6 @@
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
   </si>
   <si>
-    <t>/ADC</t>
-  </si>
-  <si>
     <t>pedalboard-soundcard(8)</t>
   </si>
   <si>
@@ -214,6 +235,9 @@
     <t>26.8500</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
   </si>
   <si>
@@ -235,7 +259,7 @@
     <t>16.0700</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>LED</t>
@@ -253,9 +277,6 @@
     <t>~</t>
   </si>
   <si>
-    <t>pedalboard-soundcard(2)</t>
-  </si>
-  <si>
     <t>10.0050</t>
   </si>
   <si>
@@ -271,7 +292,7 @@
     <t>1.4000</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Conn_02x03_Odd_Even</t>
@@ -301,9 +322,6 @@
     <t>19.1000</t>
   </si>
   <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t>bottom</t>
   </si>
   <si>
@@ -316,9 +334,6 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>RPi_GPIO</t>
   </si>
   <si>
@@ -415,6 +430,9 @@
     <t>46.4000</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>R1 R20 R23 R24 R25</t>
   </si>
   <si>
@@ -433,7 +451,7 @@
     <t>30.6750</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>R4 R9 R11 R13</t>
@@ -451,7 +469,7 @@
     <t>13.4100</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>AT24CS01-STUM</t>
@@ -487,13 +505,16 @@
     <t>2.5000</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>TLV71333PDBV-Regulator_Linear</t>
-  </si>
-  <si>
-    <t>zynthiandac-rescue</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>250mA low-noise LDO, 2.2V-5.5V input, 3.3V output, SOT-23-5</t>
+  </si>
+  <si>
+    <t>NCP163ASN330T1G</t>
+  </si>
+  <si>
+    <t>Regulator_Linear</t>
   </si>
   <si>
     <t>U2 U3 U5</t>
@@ -502,7 +523,7 @@
     <t>NCP163</t>
   </si>
   <si>
-    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
+    <t>https://www.onsemi.com/pdf/datasheet/ncp163-d.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
@@ -514,7 +535,7 @@
     <t>44.6500</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>PCM1863DBT-pcm1863</t>
@@ -550,7 +571,7 @@
     <t>7.3000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>PCM5242RHBR-pcm5242</t>
@@ -580,7 +601,7 @@
     <t>5.7500</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>ASCO-Oscillator</t>
@@ -613,7 +634,7 @@
     <t>2.4000</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>X2</t>
@@ -667,13 +688,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>74 (69 SMD/ 5 THT)</t>
+    <t>76 (71 SMD/ 5 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>71 (68 SMD/ 3 THT)</t>
+    <t>73 (70 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -826,7 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,8 +933,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1291,7 +1312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1301,8 +1322,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
@@ -1327,7 +1348,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1352,55 +1373,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1408,16 +1429,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1567,7 +1588,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>25</v>
@@ -1576,10 +1597,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>29</v>
@@ -1588,10 +1609,10 @@
         <v>30</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>32</v>
@@ -1599,7 +1620,7 @@
       <c r="L10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="N10" s="11" t="s">
@@ -1671,22 +1692,22 @@
         <v>33</v>
       </c>
       <c r="M11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>40</v>
@@ -1708,7 +1729,7 @@
       <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1741,11 +1762,11 @@
       <c r="L12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>68</v>
@@ -1775,7 +1796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -1783,52 +1804,52 @@
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="R13" s="7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>40</v>
@@ -1840,36 +1861,36 @@
         <v>42</v>
       </c>
       <c r="V13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="F14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="45" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="H14" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>45</v>
@@ -1880,230 +1901,230 @@
       <c r="K14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>89</v>
+      <c r="L14" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>42</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>40</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>123</v>
@@ -2112,7 +2133,7 @@
         <v>124</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>40</v>
@@ -2124,21 +2145,21 @@
         <v>42</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>26</v>
@@ -2150,40 +2171,40 @@
         <v>126</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>127</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="Q18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="Q18" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="R18" s="11" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>40</v>
@@ -2195,66 +2216,66 @@
         <v>42</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="R19" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>40</v>
@@ -2266,57 +2287,57 @@
         <v>42</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>141</v>
@@ -2325,7 +2346,7 @@
         <v>142</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>40</v>
@@ -2337,13 +2358,13 @@
         <v>42</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="45" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>143</v>
       </c>
@@ -2351,52 +2372,52 @@
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2408,66 +2429,66 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="45" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="H22" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="I22" s="9" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>40</v>
@@ -2479,66 +2500,66 @@
         <v>42</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="R23" s="7" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>40</v>
@@ -2550,36 +2571,36 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>23</v>
@@ -2591,22 +2612,22 @@
         <v>32</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>54</v>
@@ -2621,36 +2642,36 @@
         <v>42</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2662,25 +2683,25 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>40</v>
@@ -2692,36 +2713,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="H26" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
@@ -2733,25 +2754,25 @@
         <v>32</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P26" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="Q26" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="R26" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>40</v>
@@ -2763,10 +2784,81 @@
         <v>42</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2817,7 +2909,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2842,55 +2934,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2898,16 +2990,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2989,123 +3081,123 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>40</v>
@@ -3114,13 +3206,13 @@
         <v>41</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3146,27 +3238,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -667,13 +667,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-12-19</t>
+    <t>2024-10-16</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -667,7 +667,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="250">
   <si>
     <t>Row</t>
   </si>
@@ -169,34 +169,40 @@
     <t>10nF</t>
   </si>
   <si>
+    <t>https://industrial.panasonic.com/ww/products/pt/film-cap-electroequip/models/ECHU1C103JX5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/panasonic-electronic-components/ECH-U1C103JX5/353645</t>
+  </si>
+  <si>
+    <t>/ADC</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard(2)</t>
+  </si>
+  <si>
+    <t>19.5400</t>
+  </si>
+  <si>
+    <t>22.1100</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
+  </si>
+  <si>
+    <t>100nF25V</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
-  </si>
-  <si>
-    <t>/ADC</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard(2)</t>
-  </si>
-  <si>
-    <t>19.5400</t>
-  </si>
-  <si>
-    <t>22.1100</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
-  </si>
-  <si>
-    <t>100nF25V</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>/</t>
@@ -1348,7 +1354,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1373,13 +1379,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1387,41 +1393,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1429,13 +1435,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -1618,25 +1624,25 @@
         <v>32</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>40</v>
@@ -1656,7 +1662,7 @@
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -1668,10 +1674,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -1680,10 +1686,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>32</v>
@@ -1692,22 +1698,22 @@
         <v>33</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>40</v>
@@ -1739,10 +1745,10 @@
         <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>29</v>
@@ -1751,10 +1757,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>32</v>
@@ -1763,19 +1769,19 @@
         <v>33</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>39</v>
@@ -1798,7 +1804,7 @@
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -1810,10 +1816,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
@@ -1822,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>32</v>
@@ -1834,19 +1840,19 @@
         <v>33</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>39</v>
@@ -1869,28 +1875,28 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>45</v>
@@ -1902,25 +1908,25 @@
         <v>32</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>40</v>
@@ -1932,36 +1938,36 @@
         <v>42</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>45</v>
@@ -1973,66 +1979,66 @@
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>23</v>
@@ -2044,96 +2050,96 @@
         <v>32</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>40</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>40</v>
@@ -2145,36 +2151,36 @@
         <v>42</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>31</v>
@@ -2186,10 +2192,10 @@
         <v>32</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>35</v>
@@ -2198,10 +2204,10 @@
         <v>36</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>39</v>
@@ -2216,66 +2222,66 @@
         <v>42</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>40</v>
@@ -2287,66 +2293,66 @@
         <v>42</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>40</v>
@@ -2358,36 +2364,36 @@
         <v>42</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>31</v>
@@ -2399,25 +2405,25 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2429,36 +2435,36 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>23</v>
@@ -2470,25 +2476,25 @@
         <v>32</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>40</v>
@@ -2500,63 +2506,63 @@
         <v>42</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>39</v>
@@ -2571,36 +2577,36 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>23</v>
@@ -2612,25 +2618,25 @@
         <v>32</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>40</v>
@@ -2642,36 +2648,36 @@
         <v>42</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2683,25 +2689,25 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>40</v>
@@ -2713,36 +2719,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
@@ -2754,25 +2760,25 @@
         <v>32</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>40</v>
@@ -2784,36 +2790,36 @@
         <v>42</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -2825,25 +2831,25 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>40</v>
@@ -2855,10 +2861,10 @@
         <v>42</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +2915,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2934,13 +2940,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -2948,41 +2954,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2990,13 +2996,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -3081,67 +3087,67 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
@@ -3152,52 +3158,52 @@
         <v>24</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>40</v>
@@ -3206,13 +3212,13 @@
         <v>41</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3238,27 +3244,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="251">
   <si>
     <t>Row</t>
   </si>
@@ -106,7 +106,7 @@
     <t>C21 C22 C25 C26</t>
   </si>
   <si>
-    <t>2,2nF50V</t>
+    <t>2n2</t>
   </si>
   <si>
     <t>C_0805_2012Metric</t>
@@ -166,7 +166,7 @@
     <t>C33 C34</t>
   </si>
   <si>
-    <t>10nF</t>
+    <t>10n_film</t>
   </si>
   <si>
     <t>https://industrial.panasonic.com/ww/products/pt/film-cap-electroequip/models/ECHU1C103JX5</t>
@@ -196,7 +196,7 @@
     <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
   </si>
   <si>
-    <t>100nF25V</t>
+    <t>100n</t>
   </si>
   <si>
     <t>9</t>
@@ -223,7 +223,7 @@
     <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
   </si>
   <si>
-    <t>1uF16V</t>
+    <t>1u</t>
   </si>
   <si>
     <t>8</t>
@@ -247,7 +247,7 @@
     <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
   </si>
   <si>
-    <t>10uF16V</t>
+    <t>10u</t>
   </si>
   <si>
     <t>11</t>
@@ -274,6 +274,9 @@
     <t>D1 D2</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>LED_0805_2012Metric</t>
   </si>
   <si>
@@ -616,7 +619,7 @@
     <t>X1</t>
   </si>
   <si>
-    <t>22.5792Mhz</t>
+    <t>22.5792M</t>
   </si>
   <si>
     <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
@@ -646,7 +649,7 @@
     <t>X2</t>
   </si>
   <si>
-    <t>24.576Mhz</t>
+    <t>24.576M</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
@@ -685,7 +688,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.4+1</t>
+    <t>8.0.6+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -939,10 +942,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1071975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -969,7 +972,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,10 +994,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1376775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1021,7 +1024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,7 +1357,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1379,13 +1382,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1393,41 +1396,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1435,13 +1438,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -1890,13 +1893,13 @@
         <v>83</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>45</v>
@@ -1908,7 +1911,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>24</v>
@@ -1920,13 +1923,13 @@
         <v>52</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>40</v>
@@ -1938,36 +1941,36 @@
         <v>42</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>45</v>
@@ -1979,10 +1982,10 @@
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>35</v>
@@ -1991,28 +1994,28 @@
         <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
@@ -2023,22 +2026,22 @@
         <v>24</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>23</v>
@@ -2050,22 +2053,22 @@
         <v>32</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>65</v>
@@ -2074,16 +2077,16 @@
         <v>40</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
@@ -2094,49 +2097,49 @@
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>65</v>
@@ -2151,36 +2154,36 @@
         <v>42</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>31</v>
@@ -2192,10 +2195,10 @@
         <v>32</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>35</v>
@@ -2204,10 +2207,10 @@
         <v>36</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>39</v>
@@ -2222,10 +2225,10 @@
         <v>42</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="30" customHeight="1">
@@ -2236,22 +2239,22 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>56</v>
@@ -2263,25 +2266,25 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>40</v>
@@ -2293,36 +2296,36 @@
         <v>42</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>73</v>
@@ -2334,25 +2337,25 @@
         <v>32</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>40</v>
@@ -2364,36 +2367,36 @@
         <v>42</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>31</v>
@@ -2405,10 +2408,10 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>51</v>
@@ -2417,13 +2420,13 @@
         <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2435,36 +2438,36 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>23</v>
@@ -2476,22 +2479,22 @@
         <v>32</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>55</v>
@@ -2506,36 +2509,36 @@
         <v>42</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>56</v>
@@ -2547,22 +2550,22 @@
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>39</v>
@@ -2577,36 +2580,36 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>23</v>
@@ -2618,22 +2621,22 @@
         <v>32</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>51</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>55</v>
@@ -2648,36 +2651,36 @@
         <v>42</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2689,22 +2692,22 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>65</v>
@@ -2719,36 +2722,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
@@ -2760,22 +2763,22 @@
         <v>32</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>65</v>
@@ -2790,36 +2793,36 @@
         <v>42</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -2831,22 +2834,22 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>65</v>
@@ -2861,10 +2864,10 @@
         <v>42</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2918,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2940,13 +2943,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -2954,41 +2957,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2996,13 +2999,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -3087,37 +3090,37 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>51</v>
@@ -3126,28 +3129,28 @@
         <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
@@ -3158,52 +3161,52 @@
         <v>24</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>40</v>
@@ -3212,13 +3215,13 @@
         <v>41</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3244,27 +3247,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -274,7 +274,7 @@
     <t>D1 D2</t>
   </si>
   <si>
-    <t>red</t>
+    <t>LED_R</t>
   </si>
   <si>
     <t>LED_0805_2012Metric</t>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -625,10 +625,10 @@
     <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
   </si>
   <si>
-    <t>https://abracon.com/Oscillators/ASCO.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Kyocera%20International/Z_Series_X_Type.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/kyocera-avx/KC2016Z22-5792C1KX00/11610237</t>
   </si>
   <si>
     <t>33.2500</t>
@@ -652,7 +652,7 @@
     <t>24.576M</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
+    <t>https://www.digikey.ch/en/products/detail/kyocera-avx/KC2016Z24-5760C1KX00/11610181</t>
   </si>
   <si>
     <t>39.4750</t>

--- a/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="252">
   <si>
     <t>Row</t>
   </si>
@@ -268,6 +268,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
     <t>LED</t>
   </si>
   <si>
@@ -688,7 +691,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.6+1</t>
+    <t>9.0.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -942,10 +945,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1071975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>297815</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,7 +975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9396825" cy="5079365"/>
+          <a:ext cx="2378784" cy="1285829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,10 +997,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1376775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1024,7 +1027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9396825" cy="5079365"/>
+          <a:ext cx="2378784" cy="1285829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1357,7 +1360,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1382,13 +1385,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1396,41 +1399,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1438,13 +1441,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -1880,26 +1883,26 @@
       <c r="A14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>24</v>
+      <c r="B14" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>45</v>
@@ -1911,7 +1914,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>24</v>
@@ -1923,13 +1926,13 @@
         <v>52</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>40</v>
@@ -1941,36 +1944,36 @@
         <v>42</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>45</v>
@@ -1982,10 +1985,10 @@
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>35</v>
@@ -1994,28 +1997,28 @@
         <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
@@ -2026,22 +2029,22 @@
         <v>24</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>23</v>
@@ -2053,22 +2056,22 @@
         <v>32</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>65</v>
@@ -2077,16 +2080,16 @@
         <v>40</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
@@ -2097,49 +2100,49 @@
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>65</v>
@@ -2154,36 +2157,36 @@
         <v>42</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>31</v>
@@ -2195,10 +2198,10 @@
         <v>32</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>35</v>
@@ -2207,10 +2210,10 @@
         <v>36</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>39</v>
@@ -2225,10 +2228,10 @@
         <v>42</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="30" customHeight="1">
@@ -2239,22 +2242,22 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>56</v>
@@ -2266,25 +2269,25 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>40</v>
@@ -2296,36 +2299,36 @@
         <v>42</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>73</v>
@@ -2337,25 +2340,25 @@
         <v>32</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>40</v>
@@ -2367,36 +2370,36 @@
         <v>42</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>31</v>
@@ -2408,10 +2411,10 @@
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>51</v>
@@ -2420,13 +2423,13 @@
         <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>40</v>
@@ -2438,36 +2441,36 @@
         <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>23</v>
@@ -2479,22 +2482,22 @@
         <v>32</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>55</v>
@@ -2509,36 +2512,36 @@
         <v>42</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>56</v>
@@ -2550,22 +2553,22 @@
         <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>39</v>
@@ -2580,36 +2583,36 @@
         <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>23</v>
@@ -2621,22 +2624,22 @@
         <v>32</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>51</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>55</v>
@@ -2651,36 +2654,36 @@
         <v>42</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2692,22 +2695,22 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>65</v>
@@ -2722,36 +2725,36 @@
         <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
@@ -2763,22 +2766,22 @@
         <v>32</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>65</v>
@@ -2793,36 +2796,36 @@
         <v>42</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -2834,22 +2837,22 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>65</v>
@@ -2864,10 +2867,10 @@
         <v>42</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2921,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2943,13 +2946,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -2957,41 +2960,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2999,13 +3002,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -3090,37 +3093,37 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>51</v>
@@ -3129,28 +3132,28 @@
         <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
@@ -3161,52 +3164,52 @@
         <v>24</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>40</v>
@@ -3215,13 +3218,13 @@
         <v>41</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3247,27 +3250,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
